--- a/results/yq_test/two_local_random_cz/Rb2Re4/cz_2q_twolocalrandom_indep_qiskit_14.qasm_rb2_archsize4_mini_dis.xlsx
+++ b/results/yq_test/two_local_random_cz/Rb2Re4/cz_2q_twolocalrandom_indep_qiskit_14.qasm_rb2_archsize4_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N393"/>
+  <dimension ref="A1:N394"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2673690319061279</v>
+        <v>0.0006818771362304688</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01335716247558594</v>
+        <v>0.0006268024444580078</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.003229141235351562</v>
+        <v>0.03408622741699219</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(0, 1), (1, 1), (1, 0), (1, 2), (2, 1), (0, 0), (0, 2), (0, 3), (3, 0), (2, 0), (3, 1), (3, 2), (2, 3), (3, 3)]</t>
+          <t>[[0, 1], [1, 1], [1, 0], [1, 2], [2, 1], [0, 0], [0, 2], [0, 3], [3, 0], [2, 0], [3, 1], [3, 2], [2, 3], [3, 3]]</t>
         </is>
       </c>
     </row>
@@ -702,7 +702,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>[(3, 1), (1, 0), (2, 2), (0, 1), (1, 3), (0, 3), (0, 2), (1, 2), (1, 1), (2, 1), (2, 0), (3, 0), (3, 2), (3, 3)]</t>
+          <t>[[3, 1], [1, 0], [2, 2], [0, 1], [1, 3], [0, 3], [0, 2], [1, 2], [1, 1], [2, 1], [2, 0], [3, 0], [3, 2], [3, 3]]</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>[(2, 3), (1, 3), (3, 2), (2, 2), (2, 1), (1, 1), (0, 0), (0, 1), (0, 2), (1, 0), (2, 0), (3, 1), (1, 2), (3, 3)]</t>
+          <t>[[2, 3], [1, 3], [3, 2], [2, 2], [2, 1], [1, 1], [0, 0], [0, 1], [0, 2], [1, 0], [2, 0], [3, 1], [1, 2], [3, 3]]</t>
         </is>
       </c>
     </row>
@@ -1239,7 +1239,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>[(3, 2), (1, 3), (2, 3), (1, 2), (3, 3), (2, 2), (2, 1), (1, 1), (0, 0), (0, 1), (0, 2), (1, 0), (2, 0), (3, 1)]</t>
+          <t>[[3, 2], [1, 3], [2, 3], [1, 2], [3, 3], [2, 2], [2, 1], [1, 1], [0, 0], [0, 1], [0, 2], [1, 0], [2, 0], [3, 1]]</t>
         </is>
       </c>
     </row>
@@ -1520,7 +1520,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>[(2, 0), (2, 1), (3, 2), (1, 3), (0, 3), (2, 3), (1, 2), (2, 2), (3, 0), (1, 1), (0, 0), (0, 1), (0, 2), (1, 0)]</t>
+          <t>[[2, 0], [2, 1], [3, 2], [1, 3], [0, 3], [2, 3], [1, 2], [2, 2], [3, 0], [1, 1], [0, 0], [0, 1], [0, 2], [1, 0]]</t>
         </is>
       </c>
     </row>
@@ -1799,7 +1799,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>[(1, 3), (3, 2), (2, 2), (2, 1), (1, 1), (0, 0), (0, 1), (0, 2), (1, 0), (2, 0), (3, 1), (1, 2), (2, 3), (3, 3)]</t>
+          <t>[[1, 3], [3, 2], [2, 2], [2, 1], [1, 1], [0, 0], [0, 1], [0, 2], [1, 0], [2, 0], [3, 1], [1, 2], [2, 3], [3, 3]]</t>
         </is>
       </c>
     </row>
@@ -2074,7 +2074,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>[(2, 3), (3, 3), (1, 3), (3, 2), (2, 2), (2, 1), (1, 1), (0, 0), (0, 1), (0, 2), (1, 0), (2, 0), (3, 1), (1, 2)]</t>
+          <t>[[2, 3], [3, 3], [1, 3], [3, 2], [2, 2], [2, 1], [1, 1], [0, 0], [0, 1], [0, 2], [1, 0], [2, 0], [3, 1], [1, 2]]</t>
         </is>
       </c>
     </row>
@@ -2347,7 +2347,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>[(3, 1), (1, 2), (2, 3), (3, 3), (1, 3), (3, 2), (2, 2), (2, 1), (1, 1), (0, 0), (0, 1), (0, 2), (1, 0), (2, 0)]</t>
+          <t>[[3, 1], [1, 2], [2, 3], [3, 3], [1, 3], [3, 2], [2, 2], [2, 1], [1, 1], [0, 0], [0, 1], [0, 2], [1, 0], [2, 0]]</t>
         </is>
       </c>
     </row>
@@ -2610,7 +2610,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>[(1, 1), (0, 2), (2, 3), (3, 3), (2, 1), (3, 0), (3, 1), (3, 2), (2, 2), (1, 3), (1, 2), (0, 0), (0, 1), (1, 0)]</t>
+          <t>[[1, 1], [0, 2], [2, 3], [3, 3], [2, 1], [3, 0], [3, 1], [3, 2], [2, 2], [1, 3], [1, 2], [0, 0], [0, 1], [1, 0]]</t>
         </is>
       </c>
     </row>
@@ -2886,7 +2886,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>[(3, 1), (3, 2), (1, 3), (2, 2), (2, 1), (1, 1), (0, 0), (0, 1), (0, 2), (1, 0), (2, 0), (1, 2), (2, 3), (3, 3)]</t>
+          <t>[[3, 1], [3, 2], [1, 3], [2, 2], [2, 1], [1, 1], [0, 0], [0, 1], [0, 2], [1, 0], [2, 0], [1, 2], [2, 3], [3, 3]]</t>
         </is>
       </c>
     </row>
@@ -3132,7 +3132,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>[(3, 1), (3, 2), (1, 3), (2, 3), (2, 2), (3, 0), (2, 0), (1, 2), (0, 1), (0, 0), (0, 2), (1, 1), (1, 0), (2, 1)]</t>
+          <t>[[3, 1], [3, 2], [1, 3], [2, 3], [2, 2], [3, 0], [2, 0], [1, 2], [0, 1], [0, 0], [0, 2], [1, 1], [1, 0], [2, 1]]</t>
         </is>
       </c>
     </row>
@@ -3307,7 +3307,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>[(3, 1), (3, 2), (1, 3), (2, 3), (2, 2), (3, 0), (2, 0), (1, 2), (1, 0), (0, 3), (0, 0), (1, 1), (0, 1), (0, 2)]</t>
+          <t>[[3, 1], [3, 2], [1, 3], [2, 3], [2, 2], [3, 0], [2, 0], [1, 2], [1, 0], [0, 3], [0, 0], [1, 1], [0, 1], [0, 2]]</t>
         </is>
       </c>
     </row>
@@ -3376,110 +3376,120 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>94</v>
+        <v>0.9943021055213628</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>273</v>
+        <v>94</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>12</v>
+        <v>273</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>0.311190128326416</v>
+        <v>12</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
+        <v>0.07102513313293457</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B393" t="inlineStr">
+      <c r="B394" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C393" t="inlineStr">
+      <c r="C394" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D393" t="inlineStr">
+      <c r="D394" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E393" t="inlineStr">
+      <c r="E394" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F393" t="inlineStr">
+      <c r="F394" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G393" t="inlineStr">
+      <c r="G394" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
+      <c r="H394" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I393" t="inlineStr">
+      <c r="I394" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J393" t="inlineStr">
+      <c r="J394" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K393" t="inlineStr">
+      <c r="K394" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L393" t="inlineStr">
+      <c r="L394" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M393" t="inlineStr">
+      <c r="M394" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N393" t="inlineStr">
+      <c r="N394" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>
